--- a/app/templates/template.xlsx
+++ b/app/templates/template.xlsx
@@ -21,11 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Titel</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,17 +423,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="30" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
